--- a/mtdna_spp_final.xlsx
+++ b/mtdna_spp_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E085AA2-4698-064A-9D7A-DAC2C1A3784D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A26E3-0BBD-744E-9F4B-27D3D46FDB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20740" yWindow="0" windowWidth="21440" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - mtdna_spp_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="645">
   <si>
     <t>spp</t>
   </si>
@@ -1955,15 +1955,6 @@
   </si>
   <si>
     <t>Zebrasoma flavescens</t>
-  </si>
-  <si>
-    <t>13427</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>217</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2117,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2171,6 +2162,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3335,10 +3329,10 @@
   <dimension ref="A1:IV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="14" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4309,11 +4303,11 @@
       <c r="E16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>645</v>
+      <c r="F16" s="12">
+        <v>13427</v>
+      </c>
+      <c r="G16" s="12">
+        <v>13427</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>20</v>
@@ -4371,11 +4365,11 @@
       <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>646</v>
+      <c r="F17" s="12">
+        <v>2050</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2050</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>39</v>
@@ -4433,11 +4427,11 @@
       <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>647</v>
+      <c r="F18" s="12">
+        <v>217</v>
+      </c>
+      <c r="G18" s="12">
+        <v>217</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>71</v>
@@ -4560,8 +4554,8 @@
       <c r="F20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>21</v>
+      <c r="G20" s="15">
+        <v>772415</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>80</v>
@@ -5800,8 +5794,8 @@
       <c r="F40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>21</v>
+      <c r="G40" s="12">
+        <v>1</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>20</v>
@@ -5862,8 +5856,8 @@
       <c r="F41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>21</v>
+      <c r="G41" s="15">
+        <v>280000</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>125</v>

--- a/mtdna_spp_final.xlsx
+++ b/mtdna_spp_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A26E3-0BBD-744E-9F4B-27D3D46FDB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5EA8F9-585D-344A-944A-D7618E5A1C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="645">
   <si>
     <t>spp</t>
   </si>
@@ -1965,7 +1965,7 @@
     <numFmt numFmtId="164" formatCode="0E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1976,6 +1976,12 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2117,7 +2123,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2165,6 +2171,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3329,10 +3341,10 @@
   <dimension ref="A1:IV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="14" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="14" topLeftCell="G134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7778,8 +7790,8 @@
       <c r="F72" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>21</v>
+      <c r="G72" s="12">
+        <v>15437</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>20</v>
@@ -7840,8 +7852,8 @@
       <c r="F73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>21</v>
+      <c r="G73" s="16">
+        <v>75</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>20</v>
@@ -9189,7 +9201,7 @@
       <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="17" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -10568,8 +10580,8 @@
       <c r="F117" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="11" t="s">
-        <v>21</v>
+      <c r="G117" s="16">
+        <v>153069</v>
       </c>
       <c r="H117" s="11" t="s">
         <v>39</v>
@@ -11932,8 +11944,8 @@
       <c r="F139" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G139" s="11" t="s">
-        <v>21</v>
+      <c r="G139" s="16">
+        <v>45075</v>
       </c>
       <c r="H139" s="11" t="s">
         <v>345</v>

--- a/mtdna_spp_final.xlsx
+++ b/mtdna_spp_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/marial_diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5EA8F9-585D-344A-944A-D7618E5A1C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85593A9-7671-7D4D-B06D-C868A53FEBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3825" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="645">
   <si>
     <t>spp</t>
   </si>
@@ -3341,10 +3341,10 @@
   <dimension ref="A1:IV270"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="14" topLeftCell="G134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="14" topLeftCell="G143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G136" sqref="G136"/>
+      <selection pane="bottomRight" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12068,8 +12068,8 @@
       <c r="F141" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G141" s="11" t="s">
-        <v>21</v>
+      <c r="G141" s="12">
+        <v>6094000</v>
       </c>
       <c r="H141" s="11" t="s">
         <v>355</v>
